--- a/balance.xlsx
+++ b/balance.xlsx
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
@@ -1063,7 +1063,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -1077,7 +1077,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
@@ -1091,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -1105,7 +1105,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
@@ -1119,7 +1119,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D7" t="n">
         <v>16</v>
@@ -1133,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
@@ -1147,7 +1147,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D9" t="n">
         <v>15</v>
@@ -1161,7 +1161,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
@@ -1175,7 +1175,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -1189,7 +1189,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D13" t="n">
         <v>16</v>
@@ -1217,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D15" t="n">
         <v>16</v>
@@ -1245,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
@@ -1259,7 +1259,7 @@
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D17" t="n">
         <v>17</v>
@@ -1273,7 +1273,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="D18" t="n">
         <v>19</v>
@@ -1287,7 +1287,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D19" t="n">
         <v>14</v>
@@ -1301,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D20" t="n">
         <v>18</v>
@@ -1315,7 +1315,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D21" t="n">
         <v>14</v>
@@ -1329,7 +1329,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D22" t="n">
         <v>18</v>
@@ -1343,7 +1343,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D23" t="n">
         <v>18</v>
@@ -1357,7 +1357,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -1371,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D25" t="n">
         <v>14</v>
@@ -1385,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D26" t="n">
         <v>18</v>
@@ -1399,7 +1399,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D27" t="n">
         <v>19</v>
@@ -1413,7 +1413,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D28" t="n">
         <v>17</v>
@@ -1427,7 +1427,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D29" t="n">
         <v>16</v>
@@ -1441,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D30" t="n">
         <v>19</v>
@@ -1455,7 +1455,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D31" t="n">
         <v>19</v>
@@ -1469,7 +1469,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="D32" t="n">
         <v>14</v>
@@ -1483,7 +1483,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="n">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="D33" t="n">
         <v>14</v>
@@ -1497,7 +1497,7 @@
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D34" t="n">
         <v>17</v>
@@ -1511,7 +1511,7 @@
         <v>65</v>
       </c>
       <c r="C35" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D35" t="n">
         <v>16</v>
